--- a/output/Transects_UniqueData.xlsx
+++ b/output/Transects_UniqueData.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sampling_ID</t>
+          <t>Lake</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -370,47 +370,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Trunk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rock</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Block</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Metric_block</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Macrophyte</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Trunk</t>
+          <t>Mean_depth</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Cond</t>
+          <t>Conductivity</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -420,7 +420,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Turb</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -447,32 +447,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACHI_T_01</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>74.8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>118.5</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
       </c>
       <c r="J2">
         <v>25.2</v>
@@ -502,32 +502,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACHI_T_02</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>83.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>79</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
       </c>
       <c r="J3">
         <v>24.3</v>
@@ -557,32 +557,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACHI_T_03</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B4">
         <v>75</v>
       </c>
       <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
         <v>28.7</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>20.8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>49.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>115</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
       </c>
       <c r="J4">
         <v>24.5</v>
@@ -612,32 +612,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACHI_T_04</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>67</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>33</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>147</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
       </c>
       <c r="J5">
         <v>24.5</v>
@@ -667,32 +667,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACHI_T_05</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>43.8</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>45.6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>36.7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>37.5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
       <c r="J6">
         <v>23.6</v>
@@ -722,32 +722,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ACHI_T_06</t>
+          <t>Achigan</t>
         </is>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>11.5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72.8</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15.7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>66</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
       </c>
       <c r="J7">
         <v>24.3</v>
@@ -777,7 +777,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEAV_T_01</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B8">
@@ -811,7 +811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BEAV_T_02</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B9">
@@ -845,32 +845,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COEU_T_01</t>
+          <t>Coeur</t>
         </is>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
         <v>43</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>27.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>29.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>187.5</v>
-      </c>
-      <c r="I10">
-        <v>80</v>
       </c>
       <c r="J10">
         <v>23.6</v>
@@ -900,32 +900,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COEU_T_02</t>
+          <t>Coeur</t>
         </is>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
         <v>36.5</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>29.8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>33.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>62.5</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
       </c>
       <c r="J11">
         <v>23.3</v>
@@ -955,32 +955,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COEU_T_03</t>
+          <t>Coeur</t>
         </is>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>33.9</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>20.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>45.6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>80</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
       </c>
       <c r="J12">
         <v>23</v>
@@ -1010,32 +1010,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COEU_T_04</t>
+          <t>Coeur</t>
         </is>
       </c>
       <c r="B13">
         <v>40</v>
       </c>
       <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="D13">
         <v>57</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>15.9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>27.1</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10.6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>108</v>
-      </c>
-      <c r="I13">
-        <v>79</v>
       </c>
       <c r="J13">
         <v>22.8</v>
@@ -1065,32 +1065,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CORN_T_01</t>
+          <t>Cornu</t>
         </is>
       </c>
       <c r="B14">
         <v>100</v>
       </c>
       <c r="C14">
+        <v>380</v>
+      </c>
+      <c r="D14">
         <v>62</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>37</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>370</v>
-      </c>
-      <c r="I14">
-        <v>380</v>
       </c>
       <c r="J14">
         <v>22.6</v>
@@ -1120,18 +1120,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CORN_T_02</t>
+          <t>Cornu</t>
         </is>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
       <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
         <v>100</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>25</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>39.5</v>
-      </c>
-      <c r="I15">
-        <v>45</v>
       </c>
       <c r="J15">
         <v>22.5</v>
@@ -1175,32 +1175,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CORN_T_03</t>
+          <t>Cornu</t>
         </is>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
         <v>97.40000000000001</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>2.6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>75.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>44.5</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
       </c>
       <c r="J16">
         <v>22.6</v>
@@ -1230,7 +1230,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CORN_T_04</t>
+          <t>Cornu</t>
         </is>
       </c>
       <c r="B17">
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>65.5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>16.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14.9</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>45</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
       </c>
       <c r="J17">
         <v>22.6</v>
@@ -1285,32 +1285,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CORR_T_01</t>
+          <t>Corriveau</t>
         </is>
       </c>
       <c r="B18">
         <v>30</v>
       </c>
       <c r="C18">
+        <v>108</v>
+      </c>
+      <c r="D18">
         <v>77.5</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8.5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>35</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>107</v>
-      </c>
-      <c r="I18">
-        <v>108</v>
       </c>
       <c r="J18">
         <v>20.3</v>
@@ -1340,32 +1340,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CORR_T_02</t>
+          <t>Corriveau</t>
         </is>
       </c>
       <c r="B19">
         <v>80</v>
       </c>
       <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
         <v>57.5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>24.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>27.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>89.5</v>
-      </c>
-      <c r="I19">
-        <v>33</v>
       </c>
       <c r="J19">
         <v>21</v>
@@ -1395,18 +1395,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROC_T_01</t>
+          <t>Croche</t>
         </is>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20">
         <v>100</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>39.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>73.5</v>
-      </c>
-      <c r="I20">
-        <v>52</v>
       </c>
       <c r="J20">
         <v>21.3</v>
@@ -1450,32 +1450,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROC_T_04</t>
+          <t>Croche</t>
         </is>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
       <c r="C21">
+        <v>171</v>
+      </c>
+      <c r="D21">
         <v>97.5</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>10.1</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>97</v>
-      </c>
-      <c r="I21">
-        <v>171</v>
       </c>
       <c r="J21">
         <v>21.9</v>
@@ -1505,32 +1505,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROC_T_06</t>
+          <t>Croche</t>
         </is>
       </c>
       <c r="B22">
         <v>100</v>
       </c>
       <c r="C22">
+        <v>73</v>
+      </c>
+      <c r="D22">
         <v>50.5</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>46.1</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2.9</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>94</v>
-      </c>
-      <c r="I22">
-        <v>73</v>
       </c>
       <c r="J22">
         <v>21.6</v>
@@ -1560,32 +1560,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROM_T_02</t>
+          <t>Cromwell</t>
         </is>
       </c>
       <c r="B23">
         <v>80</v>
       </c>
       <c r="C23">
+        <v>79</v>
+      </c>
+      <c r="D23">
         <v>80</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>27</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>56</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>76</v>
-      </c>
-      <c r="I23">
-        <v>79</v>
       </c>
       <c r="J23">
         <v>19.7</v>
@@ -1615,32 +1615,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CROM_T_03</t>
+          <t>Cromwell</t>
         </is>
       </c>
       <c r="B24">
         <v>60</v>
       </c>
       <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24">
         <v>71</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>14</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>15</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>61.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>84.5</v>
-      </c>
-      <c r="I24">
-        <v>27</v>
       </c>
       <c r="J24">
         <v>19.6</v>
@@ -1670,32 +1670,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CROM_T_04</t>
+          <t>Cromwell</t>
         </is>
       </c>
       <c r="B25">
         <v>75</v>
       </c>
       <c r="C25">
+        <v>53</v>
+      </c>
+      <c r="D25">
         <v>89.8</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>5.8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4.4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>69</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>117</v>
-      </c>
-      <c r="I25">
-        <v>53</v>
       </c>
       <c r="J25">
         <v>19.8</v>
@@ -1725,32 +1725,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECHO_T_01</t>
+          <t>Echo</t>
         </is>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26">
         <v>87</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>5.8</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7.2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>53.5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>50.5</v>
-      </c>
-      <c r="I26">
-        <v>45</v>
       </c>
       <c r="J26">
         <v>23.5</v>
@@ -1780,32 +1780,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECHO_T_02</t>
+          <t>Echo</t>
         </is>
       </c>
       <c r="B27">
         <v>20</v>
       </c>
       <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>59.5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>19</v>
-      </c>
-      <c r="E27">
-        <v>10.5</v>
       </c>
       <c r="F27">
         <v>10.5</v>
       </c>
       <c r="G27">
+        <v>10.5</v>
+      </c>
+      <c r="H27">
         <v>49</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>39.5</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
       </c>
       <c r="J27">
         <v>25</v>
@@ -1835,32 +1835,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECHO_T_03</t>
+          <t>Echo</t>
         </is>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>85</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.1</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>41.3</v>
-      </c>
-      <c r="I28">
-        <v>21</v>
       </c>
       <c r="J28">
         <v>23.4</v>
@@ -1890,32 +1890,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECHO_T_04</t>
+          <t>Echo</t>
         </is>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
         <v>75</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>19.5</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5.5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>11.5</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>51</v>
-      </c>
-      <c r="I29">
-        <v>17</v>
       </c>
       <c r="J29">
         <v>23.3</v>
@@ -1945,32 +1945,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECHO_T_05</t>
+          <t>Echo</t>
         </is>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>84</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>7</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>58.5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>52</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
       </c>
       <c r="J30">
         <v>24.6</v>
@@ -2000,32 +2000,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FOUR_T_01</t>
+          <t>Fournelle</t>
         </is>
       </c>
       <c r="B31">
         <v>75</v>
       </c>
       <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
         <v>96.90000000000001</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.1</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>31.5</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>82</v>
-      </c>
-      <c r="I31">
-        <v>41</v>
       </c>
       <c r="J31">
         <v>24.9</v>
@@ -2055,32 +2055,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FOUR_T_02</t>
+          <t>Fournelle</t>
         </is>
       </c>
       <c r="B32">
         <v>80</v>
       </c>
       <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
         <v>95.40000000000001</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>1.2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3.2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>9.6</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>125.5</v>
-      </c>
-      <c r="I32">
-        <v>26</v>
       </c>
       <c r="J32">
         <v>24.5</v>
@@ -2110,18 +2110,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FOUR_T_03</t>
+          <t>Fournelle</t>
         </is>
       </c>
       <c r="B33">
         <v>60</v>
       </c>
       <c r="C33">
+        <v>57</v>
+      </c>
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>8.5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>61.5</v>
-      </c>
-      <c r="I33">
-        <v>57</v>
       </c>
       <c r="J33">
         <v>24.6</v>
@@ -2165,7 +2165,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MONT_T_01</t>
+          <t>Montaubois</t>
         </is>
       </c>
       <c r="B34">
@@ -2199,7 +2199,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MONT_T_02</t>
+          <t>Montaubois</t>
         </is>
       </c>
       <c r="B35">
@@ -2233,7 +2233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MONT_T_03</t>
+          <t>Montaubois</t>
         </is>
       </c>
       <c r="B36">
@@ -2267,32 +2267,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MORE_T_01</t>
+          <t>Morency</t>
         </is>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
         <v>88.5</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>3.6</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>7.8</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>8.5</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>30.5</v>
-      </c>
-      <c r="I37">
-        <v>15</v>
       </c>
       <c r="J37">
         <v>24.8</v>
@@ -2322,32 +2322,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MORE_T_02</t>
+          <t>Morency</t>
         </is>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
+        <v>94</v>
+      </c>
+      <c r="D38">
         <v>42.8</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.7</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>16.5</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>41</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5.9</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>168</v>
-      </c>
-      <c r="I38">
-        <v>94</v>
       </c>
       <c r="J38">
         <v>24</v>
@@ -2377,32 +2377,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MORE_T_03</t>
+          <t>Morency</t>
         </is>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
+        <v>83</v>
+      </c>
+      <c r="D39">
         <v>24.5</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>35.5</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>40.5</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>13.5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>129</v>
-      </c>
-      <c r="I39">
-        <v>83</v>
       </c>
       <c r="J39">
         <v>23.2</v>
@@ -2432,32 +2432,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MORE_T_04</t>
+          <t>Morency</t>
         </is>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
         <v>53</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>16.5</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>27.5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>57.3</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>58</v>
-      </c>
-      <c r="I40">
-        <v>31</v>
       </c>
       <c r="J40">
         <v>22.3</v>
@@ -2487,18 +2487,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PINR_T_01</t>
+          <t>Pin_rouge</t>
         </is>
       </c>
       <c r="B41">
         <v>80</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>100</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
@@ -2506,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>61</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>32.5</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
       </c>
       <c r="J41">
         <v>21</v>
@@ -2542,32 +2542,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PINR_T_02</t>
+          <t>Pin_rouge</t>
         </is>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
         <v>69.5</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>4.5</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>17</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>23.3</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>56.5</v>
-      </c>
-      <c r="I42">
-        <v>37</v>
       </c>
       <c r="J42">
         <v>20.9</v>
@@ -2597,32 +2597,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PINR_T_03</t>
+          <t>Pin_rouge</t>
         </is>
       </c>
       <c r="B43">
         <v>80</v>
       </c>
       <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
         <v>98.8</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.7</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.5</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>9.199999999999999</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>26.5</v>
-      </c>
-      <c r="I43">
-        <v>20</v>
       </c>
       <c r="J43">
         <v>20.7</v>
@@ -2652,7 +2652,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>STON_T_01</t>
+          <t>St-Onge</t>
         </is>
       </c>
       <c r="B44">
@@ -2686,7 +2686,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>STON_T_02</t>
+          <t>St-Onge</t>
         </is>
       </c>
       <c r="B45">
@@ -2720,7 +2720,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TRAC_T_01</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="B46">
@@ -2754,7 +2754,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TRAC_T_02</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="B47">
@@ -2788,32 +2788,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TRIT_T_01</t>
+          <t>Triton</t>
         </is>
       </c>
       <c r="B48">
         <v>70</v>
       </c>
       <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
         <v>98.8</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>1.2</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>57.5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>128.5</v>
-      </c>
-      <c r="I48">
-        <v>27</v>
       </c>
       <c r="J48">
         <v>20.9</v>
@@ -2843,32 +2843,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRIT_T_02</t>
+          <t>Triton</t>
         </is>
       </c>
       <c r="B49">
         <v>60</v>
       </c>
       <c r="C49">
+        <v>166</v>
+      </c>
+      <c r="D49">
         <v>91.5</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>4.5</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>4</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>41</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>121</v>
-      </c>
-      <c r="I49">
-        <v>166</v>
       </c>
       <c r="J49">
         <v>20.9</v>
